--- a/data/exp/results2.xlsx
+++ b/data/exp/results2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Documents\GitHub\PENO3ROOD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Documents\GitHub\PENOROOD\data\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3164,11 +3164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320430600"/>
-        <c:axId val="320437656"/>
+        <c:axId val="410627704"/>
+        <c:axId val="410625744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320430600"/>
+        <c:axId val="410627704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3287,13 +3287,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320437656"/>
+        <c:crossAx val="410625744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320437656"/>
+        <c:axId val="410625744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3412,7 +3412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320430600"/>
+        <c:crossAx val="410627704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3712,11 +3712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382210360"/>
-        <c:axId val="382213496"/>
+        <c:axId val="410626136"/>
+        <c:axId val="410626528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382210360"/>
+        <c:axId val="410626136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,12 +3841,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382213496"/>
+        <c:crossAx val="410626528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382213496"/>
+        <c:axId val="410626528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382210360"/>
+        <c:crossAx val="410626136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5500,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AV4" sqref="AV4"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,7 +5647,7 @@
         <v>50.414758741850001</v>
       </c>
       <c r="AU1" s="1">
-        <f t="shared" ref="AU1:AU2" si="0">AT1-AS1</f>
+        <f t="shared" ref="AU1" si="0">AT1-AS1</f>
         <v>6.5589875000000575E-2</v>
       </c>
       <c r="AV1" s="1">

--- a/data/exp/results2.xlsx
+++ b/data/exp/results2.xlsx
@@ -3164,11 +3164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410627704"/>
-        <c:axId val="410625744"/>
+        <c:axId val="399195648"/>
+        <c:axId val="399204664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410627704"/>
+        <c:axId val="399195648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3287,13 +3287,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410625744"/>
+        <c:crossAx val="399204664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410625744"/>
+        <c:axId val="399204664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3412,7 +3412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410627704"/>
+        <c:crossAx val="399195648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3616,16 +3616,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.5589875000000575E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3792864680749801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5607891677500163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8739661577500044</c:v>
+                  <c:v>0.28497424724999831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.953294634849982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3640226422500064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2950609032499756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,11 +3712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410626136"/>
-        <c:axId val="410626528"/>
+        <c:axId val="399199568"/>
+        <c:axId val="399198000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410626136"/>
+        <c:axId val="399199568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,12 +3841,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410626528"/>
+        <c:crossAx val="399198000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410626528"/>
+        <c:axId val="399198000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410626136"/>
+        <c:crossAx val="399199568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5500,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,12 +5643,12 @@
         <v>50.34916886685</v>
       </c>
       <c r="AT1" s="1">
-        <f>QUARTILE(A1:B1,3)</f>
-        <v>50.414758741850001</v>
+        <f>QUARTILE(B1:AO1,3)</f>
+        <v>50.634143114099999</v>
       </c>
       <c r="AU1" s="1">
         <f t="shared" ref="AU1" si="0">AT1-AS1</f>
-        <v>6.5589875000000575E-2</v>
+        <v>0.28497424724999831</v>
       </c>
       <c r="AV1" s="1">
         <f>_xlfn.VAR.P(B1:AO1)</f>
@@ -5788,12 +5788,12 @@
         <v>98.521986365275012</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" ref="AT2:AT4" si="2">QUARTILE(A2:B2,3)</f>
-        <v>99.901272833349992</v>
+        <f t="shared" ref="AT2:AT4" si="2">QUARTILE(B2:AO2,3)</f>
+        <v>99.475281000124994</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" ref="AU2:AU4" si="3">AT2-AS2</f>
-        <v>1.3792864680749801</v>
+        <v>0.953294634849982</v>
       </c>
       <c r="AV2" s="1">
         <f t="shared" ref="AV2:AV4" si="4">_xlfn.VAR.P(B2:AO2)</f>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="2"/>
-        <v>149.132881701</v>
+        <v>147.93611517549999</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="3"/>
-        <v>2.5607891677500163</v>
+        <v>1.3640226422500064</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" si="4"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="AT4" s="1">
         <f t="shared" si="2"/>
-        <v>198.27017524850001</v>
+        <v>192.69126999399998</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="3"/>
-        <v>6.8739661577500044</v>
+        <v>1.2950609032499756</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" si="4"/>

--- a/data/exp/results2.xlsx
+++ b/data/exp/results2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Documents\GitHub\PENO3ROOD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michiel\Documents\GitHub\PENOROOD\data\exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3164,11 +3164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320430600"/>
-        <c:axId val="320437656"/>
+        <c:axId val="399195648"/>
+        <c:axId val="399204664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320430600"/>
+        <c:axId val="399195648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3287,13 +3287,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320437656"/>
+        <c:crossAx val="399204664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320437656"/>
+        <c:axId val="399204664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3412,7 +3412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320430600"/>
+        <c:crossAx val="399195648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3616,16 +3616,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.5589875000000575E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3792864680749801</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5607891677500163</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8739661577500044</c:v>
+                  <c:v>0.28497424724999831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.953294634849982</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3640226422500064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2950609032499756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,11 +3712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382210360"/>
-        <c:axId val="382213496"/>
+        <c:axId val="399199568"/>
+        <c:axId val="399198000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382210360"/>
+        <c:axId val="399199568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,12 +3841,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382213496"/>
+        <c:crossAx val="399198000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382213496"/>
+        <c:axId val="399198000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382210360"/>
+        <c:crossAx val="399199568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5500,8 +5500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AV4" sqref="AV4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,12 +5643,12 @@
         <v>50.34916886685</v>
       </c>
       <c r="AT1" s="1">
-        <f>QUARTILE(A1:B1,3)</f>
-        <v>50.414758741850001</v>
+        <f>QUARTILE(B1:AO1,3)</f>
+        <v>50.634143114099999</v>
       </c>
       <c r="AU1" s="1">
-        <f t="shared" ref="AU1:AU2" si="0">AT1-AS1</f>
-        <v>6.5589875000000575E-2</v>
+        <f t="shared" ref="AU1" si="0">AT1-AS1</f>
+        <v>0.28497424724999831</v>
       </c>
       <c r="AV1" s="1">
         <f>_xlfn.VAR.P(B1:AO1)</f>
@@ -5788,12 +5788,12 @@
         <v>98.521986365275012</v>
       </c>
       <c r="AT2" s="1">
-        <f t="shared" ref="AT2:AT4" si="2">QUARTILE(A2:B2,3)</f>
-        <v>99.901272833349992</v>
+        <f t="shared" ref="AT2:AT4" si="2">QUARTILE(B2:AO2,3)</f>
+        <v>99.475281000124994</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" ref="AU2:AU4" si="3">AT2-AS2</f>
-        <v>1.3792864680749801</v>
+        <v>0.953294634849982</v>
       </c>
       <c r="AV2" s="1">
         <f t="shared" ref="AV2:AV4" si="4">_xlfn.VAR.P(B2:AO2)</f>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="AT3" s="1">
         <f t="shared" si="2"/>
-        <v>149.132881701</v>
+        <v>147.93611517549999</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="3"/>
-        <v>2.5607891677500163</v>
+        <v>1.3640226422500064</v>
       </c>
       <c r="AV3" s="1">
         <f t="shared" si="4"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="AT4" s="1">
         <f t="shared" si="2"/>
-        <v>198.27017524850001</v>
+        <v>192.69126999399998</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="3"/>
-        <v>6.8739661577500044</v>
+        <v>1.2950609032499756</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" si="4"/>
